--- a/BayesClassification/results/det_int_0_EWMA_04.xlsx
+++ b/BayesClassification/results/det_int_0_EWMA_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,271 +34,268 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-07-31 11:34:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:34:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:34:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:34:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:34:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:34:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:35:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:35:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:35:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:35:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:35:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:36:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:36:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:36:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:36:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:36:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:36:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:37:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:37:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:37:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:37:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:37:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:37:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:38:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:38:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:38:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:38:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:38:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:38:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:39:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:39:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:39:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:39:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:39:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:39:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:40:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:40:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:40:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:40:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:40:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:40:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:41:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:41:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:41:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:41:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:41:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:42:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:42:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:42:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:42:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:42:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:42:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:43:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:43:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:43:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:43:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:43:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:44:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:44:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:44:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:44:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:44:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:44:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:45:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:45:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:45:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:45:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:45:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:45:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:46:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:46:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:46:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:46:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:46:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:46:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:47:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:47:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:47:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:47:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:47:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:48:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:48:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:48:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:48:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:48:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:48:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:49:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:49:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31 11:49:29</t>
+    <t xml:space="preserve">2018-07-31 15:38:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:38:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:39:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:39:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:39:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:39:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:39:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:40:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:40:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:40:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:40:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:40:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:40:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:41:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:41:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:41:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:41:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:41:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:42:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:42:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:42:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:42:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:42:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:43:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:43:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:43:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:43:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:43:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:43:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:44:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:44:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:44:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:44:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:44:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:44:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:45:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:45:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:45:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:45:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:45:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:46:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:46:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:46:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:46:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:46:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:46:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:47:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:47:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:47:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:47:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:47:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:47:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:48:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:48:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:48:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:48:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:48:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:48:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:49:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:49:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:49:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:49:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:49:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:50:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:50:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:50:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:50:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:50:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:51:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:51:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:51:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:51:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:51:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:52:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:52:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:52:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:52:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:52:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:52:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:53:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:53:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:53:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:53:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:53:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:53:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:54:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31 15:54:16</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -433,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -447,10 +444,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -461,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -475,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -489,10 +486,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -503,10 +500,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -517,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -531,10 +528,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -545,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -559,10 +556,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -573,10 +570,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -587,10 +584,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -601,10 +598,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -615,10 +612,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -629,10 +626,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -643,10 +640,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -657,10 +654,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -671,10 +668,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
@@ -685,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -699,10 +696,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -713,10 +710,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
@@ -727,10 +724,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -741,10 +738,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -755,10 +752,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -769,10 +766,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -783,10 +780,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>29</v>
@@ -797,10 +794,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
@@ -811,10 +808,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>31</v>
@@ -825,10 +822,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>32</v>
@@ -839,10 +836,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>33</v>
@@ -853,10 +850,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
@@ -867,10 +864,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>35</v>
@@ -881,10 +878,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
@@ -895,10 +892,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
@@ -909,10 +906,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -923,10 +920,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>39</v>
@@ -937,10 +934,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -951,10 +948,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -965,10 +962,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -993,10 +990,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>44</v>
@@ -1007,10 +1004,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -1021,10 +1018,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -1035,10 +1032,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>47</v>
@@ -1049,10 +1046,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -1063,10 +1060,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>49</v>
@@ -1077,10 +1074,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>50</v>
@@ -1091,10 +1088,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
@@ -1105,10 +1102,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>52</v>
@@ -1119,10 +1116,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>53</v>
@@ -1133,10 +1130,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>54</v>
@@ -1147,10 +1144,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>55</v>
@@ -1161,10 +1158,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>56</v>
@@ -1175,10 +1172,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>57</v>
@@ -1189,10 +1186,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>58</v>
@@ -1203,10 +1200,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>59</v>
@@ -1217,10 +1214,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>60</v>
@@ -1231,10 +1228,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>61</v>
@@ -1245,10 +1242,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>62</v>
@@ -1259,10 +1256,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>63</v>
@@ -1273,10 +1270,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>64</v>
@@ -1287,10 +1284,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>65</v>
@@ -1301,10 +1298,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
@@ -1315,10 +1312,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>67</v>
@@ -1329,10 +1326,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>68</v>
@@ -1343,10 +1340,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>69</v>
@@ -1357,10 +1354,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>70</v>
@@ -1371,10 +1368,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>71</v>
@@ -1385,10 +1382,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>72</v>
@@ -1399,10 +1396,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>73</v>
@@ -1413,10 +1410,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>74</v>
@@ -1427,10 +1424,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>75</v>
@@ -1441,10 +1438,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>76</v>
@@ -1455,10 +1452,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>77</v>
@@ -1469,10 +1466,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>78</v>
@@ -1483,10 +1480,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>79</v>
@@ -1497,10 +1494,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>80</v>
@@ -1511,10 +1508,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>81</v>
@@ -1525,10 +1522,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>82</v>
@@ -1539,10 +1536,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>83</v>
@@ -1553,10 +1550,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>84</v>
@@ -1567,10 +1564,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>85</v>
@@ -1581,10 +1578,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>86</v>
@@ -1595,10 +1592,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>87</v>
@@ -1609,10 +1606,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>88</v>
@@ -1623,10 +1620,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>89</v>
@@ -1637,10 +1634,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>90</v>
@@ -1651,27 +1648,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
